--- a/biology/Botanique/Tabebuia_ipe/Tabebuia_ipe.xlsx
+++ b/biology/Botanique/Tabebuia_ipe/Tabebuia_ipe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Handroanthus heptaphyllus est une espèce de plantes à fleurs de la famille des Bignoniaceae. C'est un arbre à faible densité qui dispose d'un aubier visible et d'un duramen violet. On le trouve en Amérique du Sud et en Amérique centrale[1]plus particulièrement dans le sud de la Bolivie et du Brésil, le nord de l'Argentine et l'est du Paraguay et de l'Uruguay.
-Depuis 2012, il est l'arbre national du Paraguay[2] où il est connu par son nom générique en guaraní, tajy.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Handroanthus heptaphyllus est une espèce de plantes à fleurs de la famille des Bignoniaceae. C'est un arbre à faible densité qui dispose d'un aubier visible et d'un duramen violet. On le trouve en Amérique du Sud et en Amérique centraleplus particulièrement dans le sud de la Bolivie et du Brésil, le nord de l'Argentine et l'est du Paraguay et de l'Uruguay.
+Depuis 2012, il est l'arbre national du Paraguay où il est connu par son nom générique en guaraní, tajy.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un grand arbre pouvant atteindre 40 m. La période de floraison a lieu au début du mois de septembre et les premières feuilles apparaissent environ 30 jours plus tard.
 Il est considéré comme un arbre d'ornement et se trouve souvent dans les espaces verts publics, les parcs et les places.
